--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/814a2f78a4c96416/Área de Trabalho/cocriativo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Desktop\lojacocriativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F2A80BEE13DD0D901DD685D4C62528E350C3D237" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3ACFDE2-0B41-4A73-81DC-BB042F222FDD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929B7F2-1682-40C6-BA14-E50132AFF444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="785">
   <si>
     <t>ID</t>
   </si>
@@ -1448,17 +1448,951 @@
   </si>
   <si>
     <t>/open/open_20.jpg</t>
+  </si>
+  <si>
+    <t>vis_1</t>
+  </si>
+  <si>
+    <t>Cropped Preta - A Vida  Uma Danca</t>
+  </si>
+  <si>
+    <t>VISIONAIRE</t>
+  </si>
+  <si>
+    <t>/vis/vis_1.jpg</t>
+  </si>
+  <si>
+    <t>vis_2</t>
+  </si>
+  <si>
+    <t>Cropped Preta -Forro Nao E So Musica</t>
+  </si>
+  <si>
+    <t>/vis/vis_2.jpg</t>
+  </si>
+  <si>
+    <t>vis_3</t>
+  </si>
+  <si>
+    <t>Cropped Preta - Necessito Forro</t>
+  </si>
+  <si>
+    <t>/vis/vis_3.jpg</t>
+  </si>
+  <si>
+    <t>vis_4</t>
+  </si>
+  <si>
+    <t>Cropped Preta - Tamborim</t>
+  </si>
+  <si>
+    <t>/vis/vis_4.jpg</t>
+  </si>
+  <si>
+    <t>vis_5</t>
+  </si>
+  <si>
+    <t>Babylook Branca - Tamborim</t>
+  </si>
+  <si>
+    <t>/vis/vis_5.jpg</t>
+  </si>
+  <si>
+    <t>vis_6</t>
+  </si>
+  <si>
+    <t>Babylook Branca - Olha Pro Ceu Meu Amor</t>
+  </si>
+  <si>
+    <t>/vis/vis_6.jpg</t>
+  </si>
+  <si>
+    <t>vis_7</t>
+  </si>
+  <si>
+    <t>Babylook Azul - Lisa</t>
+  </si>
+  <si>
+    <t>/vis/vis_7.jpg</t>
+  </si>
+  <si>
+    <t>vis_8</t>
+  </si>
+  <si>
+    <t>Babylook Branca - Summer Closure</t>
+  </si>
+  <si>
+    <t>/vis/vis_8.jpg</t>
+  </si>
+  <si>
+    <t>vis_9</t>
+  </si>
+  <si>
+    <t>Saia Preta</t>
+  </si>
+  <si>
+    <t>/vis/vis_9.jpg</t>
+  </si>
+  <si>
+    <t>vis_10</t>
+  </si>
+  <si>
+    <t>Camisa Off White - Logo</t>
+  </si>
+  <si>
+    <t>/vis/vis_10.jpg</t>
+  </si>
+  <si>
+    <t>vis_11</t>
+  </si>
+  <si>
+    <t>Camisa Cinza - Logo</t>
+  </si>
+  <si>
+    <t>/vis/vis_11.jpg</t>
+  </si>
+  <si>
+    <t>vis_12</t>
+  </si>
+  <si>
+    <t>Camisa Cinza - Resilience</t>
+  </si>
+  <si>
+    <t>/vis/vis_12.jpg</t>
+  </si>
+  <si>
+    <t>vis_13</t>
+  </si>
+  <si>
+    <t>Camisa Cinza - Rock And Road</t>
+  </si>
+  <si>
+    <t>/vis/vis_13.jpg</t>
+  </si>
+  <si>
+    <t>vis_14</t>
+  </si>
+  <si>
+    <t>Camisa Cinza - Necessito Forro</t>
+  </si>
+  <si>
+    <t>/vis/vis_14.jpg</t>
+  </si>
+  <si>
+    <t>vis_15</t>
+  </si>
+  <si>
+    <t>Camisa Branca - Harmony</t>
+  </si>
+  <si>
+    <t>/vis/vis_15.jpg</t>
+  </si>
+  <si>
+    <t>vis_16</t>
+  </si>
+  <si>
+    <t>Camisa Branca - A Vida E Uma Danca</t>
+  </si>
+  <si>
+    <t>/vis/vis_16.jpg</t>
+  </si>
+  <si>
+    <t>vis_17</t>
+  </si>
+  <si>
+    <t>Camisa Branca - Olha Pru Ceu Meu Amor</t>
+  </si>
+  <si>
+    <t>/vis/vis_17.jpg</t>
+  </si>
+  <si>
+    <t>vis_18</t>
+  </si>
+  <si>
+    <t>Camisa Branca - Tamborim</t>
+  </si>
+  <si>
+    <t>/vis/vis_18.jpg</t>
+  </si>
+  <si>
+    <t>vis_19</t>
+  </si>
+  <si>
+    <t>Camisa Branca - Forro Nao E So Musica</t>
+  </si>
+  <si>
+    <t>/vis/vis_19.jpg</t>
+  </si>
+  <si>
+    <t>vis_20</t>
+  </si>
+  <si>
+    <t>Camisa Preta - Necessito Forro</t>
+  </si>
+  <si>
+    <t>/vis/vis_20.jpg</t>
+  </si>
+  <si>
+    <t>vis_21</t>
+  </si>
+  <si>
+    <t>Camisa Preta - A Vida Nao E So Danca</t>
+  </si>
+  <si>
+    <t>/vis/vis_21.jpg</t>
+  </si>
+  <si>
+    <t>vis_22</t>
+  </si>
+  <si>
+    <t>Camisa Preta - Logo</t>
+  </si>
+  <si>
+    <t>/vis/vis_22.jpg</t>
+  </si>
+  <si>
+    <t>vis_23</t>
+  </si>
+  <si>
+    <t>Camisa Preta - A Vida E Uma Danca</t>
+  </si>
+  <si>
+    <t>/vis/vis_23.jpg</t>
+  </si>
+  <si>
+    <t>vis_24</t>
+  </si>
+  <si>
+    <t>Oversized Preta - Guardian Serenity</t>
+  </si>
+  <si>
+    <t>/vis/vis_24.jpg</t>
+  </si>
+  <si>
+    <t>vis_25</t>
+  </si>
+  <si>
+    <t>Oversized Preta - A Vida E Uma Danca</t>
+  </si>
+  <si>
+    <t>/vis/vis_25.jpg</t>
+  </si>
+  <si>
+    <t>vis_26</t>
+  </si>
+  <si>
+    <t>Oversized Preta - Autumnal Heart</t>
+  </si>
+  <si>
+    <t>/vis/vis_26.jpg</t>
+  </si>
+  <si>
+    <t>vis_27</t>
+  </si>
+  <si>
+    <t>Oversized Preta - Pink Floyd</t>
+  </si>
+  <si>
+    <t>/vis/vis_27.jpg</t>
+  </si>
+  <si>
+    <t>vis_28</t>
+  </si>
+  <si>
+    <t>Oversized Off White - Zen Oasis</t>
+  </si>
+  <si>
+    <t>/vis/vis_28.jpg</t>
+  </si>
+  <si>
+    <t>vis_29</t>
+  </si>
+  <si>
+    <t>Oversized Off White - Quoth The Raven</t>
+  </si>
+  <si>
+    <t>/vis/vis_29.jpg</t>
+  </si>
+  <si>
+    <t>vis_30</t>
+  </si>
+  <si>
+    <t>Oversized Preta - Coringa</t>
+  </si>
+  <si>
+    <t>/vis/vis_30.jpg</t>
+  </si>
+  <si>
+    <t>vis_31</t>
+  </si>
+  <si>
+    <t>Oversized Off White - Piglet Paradise</t>
+  </si>
+  <si>
+    <t>/vis/vis_31.jpg</t>
+  </si>
+  <si>
+    <t>vis_32</t>
+  </si>
+  <si>
+    <t>Oversizes Off White - Guardian Serenity</t>
+  </si>
+  <si>
+    <t>/vis/vis_32.jpg</t>
+  </si>
+  <si>
+    <t>vis_33</t>
+  </si>
+  <si>
+    <t>Camisa Cinza - Savage</t>
+  </si>
+  <si>
+    <t>/vis/vis_33.jpg</t>
+  </si>
+  <si>
+    <t>sil_1</t>
+  </si>
+  <si>
+    <t>Quadro grande</t>
+  </si>
+  <si>
+    <t>SILVANA</t>
+  </si>
+  <si>
+    <t>/sil/sil_1.jpg</t>
+  </si>
+  <si>
+    <t>sil_2</t>
+  </si>
+  <si>
+    <t>Quadro pequeno</t>
+  </si>
+  <si>
+    <t>/sil/sil_2.jpg</t>
+  </si>
+  <si>
+    <t>rit_19771</t>
+  </si>
+  <si>
+    <t>Cropped glamour wonder</t>
+  </si>
+  <si>
+    <t>RITMO</t>
+  </si>
+  <si>
+    <t>/rit/rit_19771.jpg</t>
+  </si>
+  <si>
+    <t>rit_15771</t>
+  </si>
+  <si>
+    <t>Legging glamour wonder</t>
+  </si>
+  <si>
+    <t>/rit/rit_15771.jpg</t>
+  </si>
+  <si>
+    <t>rit_1963</t>
+  </si>
+  <si>
+    <t>Cropped strappy</t>
+  </si>
+  <si>
+    <t>/rit/rit_1963.jpg</t>
+  </si>
+  <si>
+    <t>rit_16004</t>
+  </si>
+  <si>
+    <t>Legging afina silhueta</t>
+  </si>
+  <si>
+    <t>/rit/rit_16004.jpg</t>
+  </si>
+  <si>
+    <t>rit_693</t>
+  </si>
+  <si>
+    <t>Blusa tule</t>
+  </si>
+  <si>
+    <t>/rit/rit_693.jpg</t>
+  </si>
+  <si>
+    <t>rit_1976</t>
+  </si>
+  <si>
+    <t>Cropped decote costas</t>
+  </si>
+  <si>
+    <t>/rit/rit_1976.jpg</t>
+  </si>
+  <si>
+    <t>rit_163063</t>
+  </si>
+  <si>
+    <t>Legging cirre power um</t>
+  </si>
+  <si>
+    <t>/rit/rit_163063.jpg</t>
+  </si>
+  <si>
+    <t>rit_19659</t>
+  </si>
+  <si>
+    <t>Cropped sustentação</t>
+  </si>
+  <si>
+    <t>/rit/rit_19659.jpg</t>
+  </si>
+  <si>
+    <t>rit_16691</t>
+  </si>
+  <si>
+    <t>Bermuda empina bumbum</t>
+  </si>
+  <si>
+    <t>/rit/rit_16691.jpg</t>
+  </si>
+  <si>
+    <t>rit_16694</t>
+  </si>
+  <si>
+    <t>/rit/rit_16694.jpg</t>
+  </si>
+  <si>
+    <t>rit_19072</t>
+  </si>
+  <si>
+    <t>Cropped alta sustentação</t>
+  </si>
+  <si>
+    <t>/rit/rit_19072.jpg</t>
+  </si>
+  <si>
+    <t>rit_379</t>
+  </si>
+  <si>
+    <t>Macaquinho meia coxa</t>
+  </si>
+  <si>
+    <t>/rit/rit_379.jpg</t>
+  </si>
+  <si>
+    <t>rit_19922</t>
+  </si>
+  <si>
+    <t>Cropped wonder</t>
+  </si>
+  <si>
+    <t>/rit/rit_19922.jpg</t>
+  </si>
+  <si>
+    <t>rit_15810</t>
+  </si>
+  <si>
+    <t>Legging wonder power</t>
+  </si>
+  <si>
+    <t>/rit/rit_15810.jpg</t>
+  </si>
+  <si>
+    <t>rit_12922</t>
+  </si>
+  <si>
+    <t>Short Cross wonder</t>
+  </si>
+  <si>
+    <t>/rit/rit_12922.jpg</t>
+  </si>
+  <si>
+    <t>art_1</t>
+  </si>
+  <si>
+    <t>Placa mestre churrasqueiro</t>
+  </si>
+  <si>
+    <t>ART TABUAS</t>
+  </si>
+  <si>
+    <t>/art/art_1.jpg</t>
+  </si>
+  <si>
+    <t>art_2</t>
+  </si>
+  <si>
+    <t>Imagem Jesus</t>
+  </si>
+  <si>
+    <t>/art/art_2.jpg</t>
+  </si>
+  <si>
+    <t>art_3</t>
+  </si>
+  <si>
+    <t>Cantinho do churrasco</t>
+  </si>
+  <si>
+    <t>/art/art_3.jpg</t>
+  </si>
+  <si>
+    <t>art_4</t>
+  </si>
+  <si>
+    <t>Porta chaves</t>
+  </si>
+  <si>
+    <t>/art/art_4.jpg</t>
+  </si>
+  <si>
+    <t>art_5</t>
+  </si>
+  <si>
+    <t>Tábua coração</t>
+  </si>
+  <si>
+    <t>/art/art_5.jpg</t>
+  </si>
+  <si>
+    <t>art_6</t>
+  </si>
+  <si>
+    <t>Tábua 2 cobres</t>
+  </si>
+  <si>
+    <t>/art/art_6.jpg</t>
+  </si>
+  <si>
+    <t>art_7</t>
+  </si>
+  <si>
+    <t>Petisqueira sol e lua</t>
+  </si>
+  <si>
+    <t>/art/art_7.jpg</t>
+  </si>
+  <si>
+    <t>art_8</t>
+  </si>
+  <si>
+    <t>Tábua redonda roxinha</t>
+  </si>
+  <si>
+    <t>/art/art_8.jpg</t>
+  </si>
+  <si>
+    <t>art_9</t>
+  </si>
+  <si>
+    <t>Tábua com friso preto e dourado</t>
+  </si>
+  <si>
+    <t>/art/art_9.jpg</t>
+  </si>
+  <si>
+    <t>art_10</t>
+  </si>
+  <si>
+    <t>Tábua palmeiras</t>
+  </si>
+  <si>
+    <t>/art/art_10.jpg</t>
+  </si>
+  <si>
+    <t>art_11</t>
+  </si>
+  <si>
+    <t>Abridor Heineken</t>
+  </si>
+  <si>
+    <t>/art/art_11.jpg</t>
+  </si>
+  <si>
+    <t>art_12</t>
+  </si>
+  <si>
+    <t>Tábua com cabo</t>
+  </si>
+  <si>
+    <t>/art/art_12.jpg</t>
+  </si>
+  <si>
+    <t>art_13</t>
+  </si>
+  <si>
+    <t>Tridente com 3 garfos</t>
+  </si>
+  <si>
+    <t>/art/art_13.jpg</t>
+  </si>
+  <si>
+    <t>art_14</t>
+  </si>
+  <si>
+    <t>Faça estilo canivete</t>
+  </si>
+  <si>
+    <t>/art/art_14.jpg</t>
+  </si>
+  <si>
+    <t>art_15</t>
+  </si>
+  <si>
+    <t>Machadinha</t>
+  </si>
+  <si>
+    <t>/art/art_15.jpg</t>
+  </si>
+  <si>
+    <t>art_16</t>
+  </si>
+  <si>
+    <t>Faça resinada</t>
+  </si>
+  <si>
+    <t>/art/art_16.jpg</t>
+  </si>
+  <si>
+    <t>art_17</t>
+  </si>
+  <si>
+    <t>Faça</t>
+  </si>
+  <si>
+    <t>/art/art_17.jpg</t>
+  </si>
+  <si>
+    <t>art_18</t>
+  </si>
+  <si>
+    <t>/art/art_18.jpg</t>
+  </si>
+  <si>
+    <t>art_19</t>
+  </si>
+  <si>
+    <t>/art/art_19.jpg</t>
+  </si>
+  <si>
+    <t>jaq_1</t>
+  </si>
+  <si>
+    <t>Cachepô médio</t>
+  </si>
+  <si>
+    <t>JAQUELINE BRAGA</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_1.jpg</t>
+  </si>
+  <si>
+    <t>jaq_2</t>
+  </si>
+  <si>
+    <t>Urso coração</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_2.jpg</t>
+  </si>
+  <si>
+    <t>jaq_3</t>
+  </si>
+  <si>
+    <t>Boneca Camila</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_3.jpg</t>
+  </si>
+  <si>
+    <t>jaq_4</t>
+  </si>
+  <si>
+    <t>Boneca Carol</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_4.jpg</t>
+  </si>
+  <si>
+    <t>jaq_5</t>
+  </si>
+  <si>
+    <t>Ursa vestido</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_5.jpg</t>
+  </si>
+  <si>
+    <t>jaq_6</t>
+  </si>
+  <si>
+    <t>NSAparecida</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_6.jpg</t>
+  </si>
+  <si>
+    <t>jaq_7</t>
+  </si>
+  <si>
+    <t>Anjinha</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_7.jpg</t>
+  </si>
+  <si>
+    <t>jaq_8</t>
+  </si>
+  <si>
+    <t>Anjinho</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_8.jpg</t>
+  </si>
+  <si>
+    <t>jaq_9</t>
+  </si>
+  <si>
+    <t>São Francisco</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_9.jpg</t>
+  </si>
+  <si>
+    <t>jaq_10</t>
+  </si>
+  <si>
+    <t>Chaveiro NSAp</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_10.jpg</t>
+  </si>
+  <si>
+    <t>jaq_11</t>
+  </si>
+  <si>
+    <t>Chaveiro NS Fátima</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_11.jpg</t>
+  </si>
+  <si>
+    <t>jaq_12</t>
+  </si>
+  <si>
+    <t>Anjinho 15 cm</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_12.jpg</t>
+  </si>
+  <si>
+    <t>jaq_13</t>
+  </si>
+  <si>
+    <t>Nicho casinha</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_13.jpg</t>
+  </si>
+  <si>
+    <t>jaq_14</t>
+  </si>
+  <si>
+    <t>Kit afeto</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_14.jpg</t>
+  </si>
+  <si>
+    <t>jaq_15</t>
+  </si>
+  <si>
+    <t>Bolsa primavera</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_15.jpg</t>
+  </si>
+  <si>
+    <t>jaq_16</t>
+  </si>
+  <si>
+    <t>Bolsa estilo sem alça</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_16.jpg</t>
+  </si>
+  <si>
+    <t>jaq_17</t>
+  </si>
+  <si>
+    <t>Sachê mega rosa</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_17.jpg</t>
+  </si>
+  <si>
+    <t>jaq_18</t>
+  </si>
+  <si>
+    <t>Kit pai</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_18.jpg</t>
+  </si>
+  <si>
+    <t>jaq_19</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>/jaq/jaq_19.jpg</t>
+  </si>
+  <si>
+    <t>tiza_1</t>
+  </si>
+  <si>
+    <t>Contêiner grande com tampa</t>
+  </si>
+  <si>
+    <t>DATIZA</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_1.jpg</t>
+  </si>
+  <si>
+    <t>tiza_2</t>
+  </si>
+  <si>
+    <t>Contêiner médio com tampa</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_2.jpg</t>
+  </si>
+  <si>
+    <t>tiza_3</t>
+  </si>
+  <si>
+    <t>Oratório</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_3.jpg</t>
+  </si>
+  <si>
+    <t>tiza_4</t>
+  </si>
+  <si>
+    <t>Concreto/pedraria</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_4.jpg</t>
+  </si>
+  <si>
+    <t>tiza_5</t>
+  </si>
+  <si>
+    <t>Contêiner pequeno sem tampa</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_5.jpg</t>
+  </si>
+  <si>
+    <t>tiza_6</t>
+  </si>
+  <si>
+    <t>Porta joias com tampa</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_6.jpg</t>
+  </si>
+  <si>
+    <t>tiza_7</t>
+  </si>
+  <si>
+    <t>Massagem medio</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_7.jpg</t>
+  </si>
+  <si>
+    <t>tiza_8</t>
+  </si>
+  <si>
+    <t>Massagem pequeno</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_8.jpg</t>
+  </si>
+  <si>
+    <t>tiza_9</t>
+  </si>
+  <si>
+    <t>Bandeja</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_9.jpg</t>
+  </si>
+  <si>
+    <t>tiza_10</t>
+  </si>
+  <si>
+    <t>Margarida patê</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_10.jpg</t>
+  </si>
+  <si>
+    <t>tiza_11</t>
+  </si>
+  <si>
+    <t>Margarida copo</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_11.jpg</t>
+  </si>
+  <si>
+    <t>tiza_12</t>
+  </si>
+  <si>
+    <t>Marmorizada</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_12.jpg</t>
+  </si>
+  <si>
+    <t>tiza_13</t>
+  </si>
+  <si>
+    <t>Contêiner quadrado pequeno sem tampa</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_13.jpg</t>
+  </si>
+  <si>
+    <t>tiza_14</t>
+  </si>
+  <si>
+    <t>Bomboniere</t>
+  </si>
+  <si>
+    <t>/tiza/tiza_14.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,6 +2411,18 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1492,7 +2438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1515,37 +2461,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{84DB5905-3490-4BFD-8A93-96EB38DE9AEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1558,10 +2531,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1765,10 +2734,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5989,7 +6958,7 @@
       </c>
       <c r="F211" s="9"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>454</v>
       </c>
@@ -6007,7 +6976,2048 @@
       </c>
       <c r="F212" s="9"/>
     </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C213" s="12">
+        <v>110</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C214" s="12">
+        <v>110</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C215" s="12">
+        <v>110</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C216" s="12">
+        <v>110</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" s="12">
+        <v>120</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C218" s="12">
+        <v>120</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C219" s="12">
+        <v>120</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C220" s="12">
+        <v>120</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C221" s="12">
+        <v>90</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C222" s="12">
+        <v>120</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C223" s="12">
+        <v>120</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C224" s="12">
+        <v>120</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C225" s="12">
+        <v>120</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C226" s="12">
+        <v>120</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C227" s="12">
+        <v>120</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C228" s="12">
+        <v>120</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C229" s="12">
+        <v>120</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C230" s="12">
+        <v>120</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="C231" s="12">
+        <v>120</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C232" s="12">
+        <v>120</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C233" s="12">
+        <v>120</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="C234" s="12">
+        <v>120</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C235" s="12">
+        <v>120</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C236" s="12">
+        <v>130</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C237" s="12">
+        <v>130</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C238" s="12">
+        <v>130</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C239" s="12">
+        <v>130</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C240" s="12">
+        <v>130</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C241" s="12">
+        <v>130</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C242" s="12">
+        <v>130</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C243" s="12">
+        <v>130</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C244" s="12">
+        <v>130</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C245" s="12">
+        <v>120</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C246" s="13">
+        <v>150</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E246" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F246" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C247" s="13">
+        <v>50</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C248" s="14">
+        <v>116.6</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C249" s="14">
+        <v>220</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C250" s="14">
+        <v>88</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C251" s="14">
+        <v>176</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C252" s="14">
+        <v>74.8</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C253" s="14">
+        <v>94.6</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C254" s="14">
+        <v>176</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C255" s="14">
+        <v>103.4</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C256" s="14">
+        <v>125.4</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C257" s="14">
+        <v>125.4</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E257" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C258" s="14">
+        <v>103.4</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E258" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C259" s="14">
+        <v>187</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C260" s="14">
+        <v>170</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C261" s="14">
+        <v>198</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C262" s="14">
+        <v>118.8</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C263" s="14">
+        <v>400</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C264" s="14">
+        <v>249.9</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C265" s="14">
+        <v>110</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C266" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F266" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C267" s="14">
+        <v>35</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E267" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C268" s="14">
+        <v>200</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E268" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F268" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C269" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E269" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F269" s="12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C270" s="14">
+        <v>90</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E270" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F270" s="12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C271" s="14">
+        <v>149.9</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E271" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C272" s="14">
+        <v>199.9</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E272" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F272" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C273" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="C274" s="14">
+        <v>250</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F274" s="12" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="C275" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E275" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F275" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C276" s="14">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E276" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F276" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C277" s="14">
+        <v>89.9</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E277" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="C278" s="14">
+        <v>399.9</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C279" s="14">
+        <v>149.9</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C280" s="14">
+        <v>110</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C281" s="14">
+        <v>89.9</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C282" s="14">
+        <v>48</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="C283" s="14">
+        <v>210</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C284" s="14">
+        <v>468</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="C285" s="14">
+        <v>468</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C286" s="14">
+        <v>230</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C287" s="14">
+        <v>230</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="C288" s="14">
+        <v>230</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C289" s="14">
+        <v>190</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C290" s="14">
+        <v>198</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C291" s="14">
+        <v>38</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C292" s="14">
+        <v>38</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="C293" s="14">
+        <v>160</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C294" s="14">
+        <v>38</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C295" s="14">
+        <v>72</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C296" s="14">
+        <v>210</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="C297" s="14">
+        <v>350</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="C298" s="14">
+        <v>55</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="C299" s="14">
+        <v>38</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="C300" s="14">
+        <v>490</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="C301" s="14">
+        <v>70</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C302" s="14">
+        <v>42</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="C303" s="14">
+        <v>100</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="C304" s="14">
+        <v>48</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F304" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C305" s="14">
+        <v>25</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="C306" s="14">
+        <v>42</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C307" s="14">
+        <v>55</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F307" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C308" s="14">
+        <v>35</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F308" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C309" s="14">
+        <v>18</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F309" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C310" s="14">
+        <v>48</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F310" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C311" s="14">
+        <v>52</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F311" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C312" s="14">
+        <v>65</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E312" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F312" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C313" s="14">
+        <v>30</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E313" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C314" s="14">
+        <v>120</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F314" s="12" t="s">
+        <v>784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Desktop\lojacocriativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\cocriativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929B7F2-1682-40C6-BA14-E50132AFF444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="765">
   <si>
     <t>ID</t>
   </si>
@@ -49,60 +49,33 @@
     <t>Moda e Acessórios</t>
   </si>
   <si>
-    <t>/dp/15.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anel coração cravejado citrino - Virgínia </t>
   </si>
   <si>
-    <t>/dp/57.jpg</t>
-  </si>
-  <si>
     <t>057.1</t>
   </si>
   <si>
     <t>Conjunto Coração Amarelo Citrino</t>
   </si>
   <si>
-    <t>/dp/057.1.jpg</t>
-  </si>
-  <si>
     <t>Colar longo Nossa Senhora prata</t>
   </si>
   <si>
-    <t>/dp/77.jpg</t>
-  </si>
-  <si>
     <t>Colar longo Nossa Senhora dourada</t>
   </si>
   <si>
-    <t>/dp/78.jpg</t>
-  </si>
-  <si>
     <t>Colar cruz maleável cravejada prata</t>
   </si>
   <si>
-    <t>/dp/79.jpg</t>
-  </si>
-  <si>
     <t>Colar cruz maleável cravejada dourada</t>
   </si>
   <si>
-    <t>/dp/80.jpg</t>
-  </si>
-  <si>
     <t>Escapulário "Orai e vigiai" prata</t>
   </si>
   <si>
-    <t>/dp/94.jpg</t>
-  </si>
-  <si>
     <t>Choker quadrada cristal prata</t>
   </si>
   <si>
-    <t>/dp/95.jpg</t>
-  </si>
-  <si>
     <t>Cordão longo fino -  Prata</t>
   </si>
   <si>
@@ -124,15 +97,9 @@
     <t>Choker pedrinhas coloridas dourado</t>
   </si>
   <si>
-    <t>/dp/238.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar infinito coração dourado </t>
   </si>
   <si>
-    <t>/dp/239.jpg</t>
-  </si>
-  <si>
     <t>Colar Longo Coração Orgânico prata</t>
   </si>
   <si>
@@ -154,9 +121,6 @@
     <t xml:space="preserve">Conjunto pastilhas prata </t>
   </si>
   <si>
-    <t>/dp/243.jpg</t>
-  </si>
-  <si>
     <t>Conjunto pedra salmão</t>
   </si>
   <si>
@@ -238,9 +202,6 @@
     <t>Brinco Gota Alongada Dourado</t>
   </si>
   <si>
-    <t>/dp/261.jpg</t>
-  </si>
-  <si>
     <t>Brinco Gota Alongada Prata</t>
   </si>
   <si>
@@ -409,9 +370,6 @@
     <t>Brinco Ripado Sobreposto</t>
   </si>
   <si>
-    <t>/dp/318.jpg</t>
-  </si>
-  <si>
     <t>Conjunto Esmeralda com Zircônia</t>
   </si>
   <si>
@@ -481,9 +439,6 @@
     <t>Anel Bombê Ripado Dourado</t>
   </si>
   <si>
-    <t>/dp/332.jpg</t>
-  </si>
-  <si>
     <t>Anel Gotas Orgânicas Prata</t>
   </si>
   <si>
@@ -556,9 +511,6 @@
     <t>Brinco argola lisa aberta dourada</t>
   </si>
   <si>
-    <t>/dp/407.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brinco coração polido clássico dourado </t>
   </si>
   <si>
@@ -586,9 +538,6 @@
     <t>Brinco argola coração texturizado dourado</t>
   </si>
   <si>
-    <t>/dp/412.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brinco Trio de argolas com zircônias prata </t>
   </si>
   <si>
@@ -658,33 +607,18 @@
     <t xml:space="preserve">Colar prateado com pedras rosas e miçangas </t>
   </si>
   <si>
-    <t>/dp/424.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar dourado com pedras laranjas e miçangas </t>
   </si>
   <si>
-    <t>/dp/425.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar dourado com pedras verdes e miçangas </t>
   </si>
   <si>
-    <t>/dp/426.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar dourado com pedras verdes esmeralda e miçangas </t>
   </si>
   <si>
-    <t>/dp/427.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar dourado com pedras roxas e miçangas </t>
   </si>
   <si>
-    <t>/dp/428.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colar dourado com pedras azuis e miçangas </t>
   </si>
   <si>
@@ -745,9 +679,6 @@
     <t>Anel Solitário Esmeralda com Zircônias - Prata</t>
   </si>
   <si>
-    <t>/dp/472.jpg</t>
-  </si>
-  <si>
     <t>Anel Eternity com Zircônias Verdes</t>
   </si>
   <si>
@@ -796,9 +727,6 @@
     <t>Anel Elos Brilhantes com Zircônias</t>
   </si>
   <si>
-    <t>/dp/486-2.jpg</t>
-  </si>
-  <si>
     <t>open_1</t>
   </si>
   <si>
@@ -1390,72 +1318,9 @@
     <t>Sabonete Glicerinado 100g Lavanda</t>
   </si>
   <si>
-    <t>/open/open_1.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_2.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_3.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_4.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_5.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_6.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_7.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_8.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_9.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_10.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_11.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_12.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_13.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_14.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_15.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_16.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_17.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_18.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_19.jpg</t>
-  </si>
-  <si>
-    <t>/open/open_20.jpg</t>
-  </si>
-  <si>
     <t>vis_1</t>
   </si>
   <si>
-    <t>Cropped Preta - A Vida  Uma Danca</t>
-  </si>
-  <si>
     <t>VISIONAIRE</t>
   </si>
   <si>
@@ -1960,9 +1825,6 @@
     <t>Tábua 2 cobres</t>
   </si>
   <si>
-    <t>/art/art_6.jpg</t>
-  </si>
-  <si>
     <t>art_7</t>
   </si>
   <si>
@@ -2375,17 +2237,102 @@
   </si>
   <si>
     <t>/tiza/tiza_14.jpg</t>
+  </si>
+  <si>
+    <t>/open/open_1.png</t>
+  </si>
+  <si>
+    <t>/open/open_2.png</t>
+  </si>
+  <si>
+    <t>/open/open_3.png</t>
+  </si>
+  <si>
+    <t>/open/open_4.png</t>
+  </si>
+  <si>
+    <t>/open/open_5.png</t>
+  </si>
+  <si>
+    <t>/open/open_6.png</t>
+  </si>
+  <si>
+    <t>/open/open_7.png</t>
+  </si>
+  <si>
+    <t>/open/open_8.png</t>
+  </si>
+  <si>
+    <t>/open/open_9.png</t>
+  </si>
+  <si>
+    <t>/open/open_10.png</t>
+  </si>
+  <si>
+    <t>/open/open_11.png</t>
+  </si>
+  <si>
+    <t>/open/open_12.png</t>
+  </si>
+  <si>
+    <t>/open/open_13.png</t>
+  </si>
+  <si>
+    <t>/open/open_14.png</t>
+  </si>
+  <si>
+    <t>/open/open_15.png</t>
+  </si>
+  <si>
+    <t>/open/open_16.png</t>
+  </si>
+  <si>
+    <t>/open/open_17.png</t>
+  </si>
+  <si>
+    <t>/open/open_18.png</t>
+  </si>
+  <si>
+    <t>/open/open_19.png</t>
+  </si>
+  <si>
+    <t>/open/open_20.png</t>
+  </si>
+  <si>
+    <t>/art/art_6.png</t>
+  </si>
+  <si>
+    <t>/dp/94.png</t>
+  </si>
+  <si>
+    <t>/sem-foto.png</t>
+  </si>
+  <si>
+    <t>/dp/057.1.png</t>
+  </si>
+  <si>
+    <t>/dp/57.png</t>
+  </si>
+  <si>
+    <t>Cropped Preta - A Vida  Uma Dança</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2479,42 +2426,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2736,13 +2684,13 @@
   </sheetPr>
   <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -2779,15 +2727,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>129.9</v>
@@ -2799,15 +2747,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>79.900000000000006</v>
@@ -2819,15 +2767,15 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>99.9</v>
@@ -2839,15 +2787,15 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>99.9</v>
@@ -2859,15 +2807,15 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>99.9</v>
@@ -2879,15 +2827,15 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>99.9</v>
@@ -2899,15 +2847,15 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>94.9</v>
@@ -2919,15 +2867,15 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>79.900000000000006</v>
@@ -2939,15 +2887,15 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>235</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>89.9</v>
@@ -2959,15 +2907,15 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>236</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>79.900000000000006</v>
@@ -2979,15 +2927,15 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>237</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>79.900000000000006</v>
@@ -2999,15 +2947,15 @@
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>238</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>69.900000000000006</v>
@@ -3019,15 +2967,15 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>239</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>69.900000000000006</v>
@@ -3039,15 +2987,15 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>240</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>75</v>
@@ -3059,15 +3007,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>241</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2">
         <v>165</v>
@@ -3079,15 +3027,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>242</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>99.9</v>
@@ -3099,15 +3047,15 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>243</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
         <v>159.9</v>
@@ -3119,15 +3067,15 @@
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>244</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>99.9</v>
@@ -3139,15 +3087,15 @@
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>245</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>99.9</v>
@@ -3159,15 +3107,15 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>246</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
         <v>99.9</v>
@@ -3179,15 +3127,15 @@
         <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>247</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2">
         <v>99.9</v>
@@ -3199,15 +3147,15 @@
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>248</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
         <v>139.9</v>
@@ -3219,15 +3167,15 @@
         <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>249</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <v>139.9</v>
@@ -3239,15 +3187,15 @@
         <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>250</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2">
         <v>149.9</v>
@@ -3259,15 +3207,15 @@
         <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>252</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2">
         <v>59.9</v>
@@ -3279,15 +3227,15 @@
         <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>253</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2">
         <v>59.9</v>
@@ -3299,15 +3247,15 @@
         <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>255</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2">
         <v>79.900000000000006</v>
@@ -3319,15 +3267,15 @@
         <v>8</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>256</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>99.9</v>
@@ -3339,15 +3287,15 @@
         <v>8</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>257</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>49.9</v>
@@ -3359,15 +3307,15 @@
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>258</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2">
         <v>49.9</v>
@@ -3379,15 +3327,15 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>260</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2">
         <v>59.9</v>
@@ -3399,15 +3347,15 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>261</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2">
         <v>89.9</v>
@@ -3419,15 +3367,15 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>262</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2">
         <v>89.9</v>
@@ -3439,15 +3387,15 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>263</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2">
         <v>79.900000000000006</v>
@@ -3459,15 +3407,15 @@
         <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>264</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2">
         <v>59.9</v>
@@ -3479,15 +3427,15 @@
         <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>265</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2">
         <v>39.9</v>
@@ -3499,15 +3447,15 @@
         <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>266</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2">
         <v>49.9</v>
@@ -3519,15 +3467,15 @@
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>267</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2">
         <v>49.9</v>
@@ -3539,15 +3487,15 @@
         <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>275</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2">
         <v>64.739999999999995</v>
@@ -3559,15 +3507,15 @@
         <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>277</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2">
         <v>69.900000000000006</v>
@@ -3579,15 +3527,15 @@
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>282</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2">
         <v>79.900000000000006</v>
@@ -3599,15 +3547,15 @@
         <v>8</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>290</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2">
         <v>49.9</v>
@@ -3619,15 +3567,15 @@
         <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>297</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>89.9</v>
@@ -3639,15 +3587,15 @@
         <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>298</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>59.9</v>
@@ -3659,15 +3607,15 @@
         <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>299</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2">
         <v>89.9</v>
@@ -3679,15 +3627,15 @@
         <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>300</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2">
         <v>59.9</v>
@@ -3699,15 +3647,15 @@
         <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>301</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2">
         <v>69.900000000000006</v>
@@ -3719,15 +3667,15 @@
         <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>303</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2">
         <v>89.9</v>
@@ -3739,15 +3687,15 @@
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>304</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2">
         <v>149.9</v>
@@ -3759,15 +3707,15 @@
         <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>305</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2">
         <v>149.9</v>
@@ -3779,15 +3727,15 @@
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>306</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2">
         <v>149.9</v>
@@ -3799,15 +3747,15 @@
         <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>307</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2">
         <v>139.9</v>
@@ -3819,15 +3767,15 @@
         <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>308</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2">
         <v>95.9</v>
@@ -3839,15 +3787,15 @@
         <v>8</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>309</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2">
         <v>89.9</v>
@@ -3859,15 +3807,15 @@
         <v>8</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>310</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2">
         <v>89.9</v>
@@ -3879,15 +3827,15 @@
         <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>311</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2">
         <v>99.9</v>
@@ -3899,15 +3847,15 @@
         <v>8</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>312</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2">
         <v>89.9</v>
@@ -3919,15 +3867,15 @@
         <v>8</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>314</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2">
         <v>119.9</v>
@@ -3939,15 +3887,15 @@
         <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>315</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2">
         <v>84.9</v>
@@ -3959,15 +3907,15 @@
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>316</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2">
         <v>79.900000000000006</v>
@@ -3979,15 +3927,15 @@
         <v>8</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>318</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2">
         <v>79.900000000000006</v>
@@ -3999,15 +3947,15 @@
         <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>319</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2">
         <v>139.9</v>
@@ -4019,15 +3967,15 @@
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>320</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2">
         <v>94.9</v>
@@ -4039,15 +3987,15 @@
         <v>8</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>321</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2">
         <v>89.9</v>
@@ -4059,15 +4007,15 @@
         <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>322</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2">
         <v>79.900000000000006</v>
@@ -4079,15 +4027,15 @@
         <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>323</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2">
         <v>79.900000000000006</v>
@@ -4099,15 +4047,15 @@
         <v>8</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>324</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2">
         <v>79.900000000000006</v>
@@ -4119,15 +4067,15 @@
         <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>326</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2">
         <v>69.900000000000006</v>
@@ -4139,15 +4087,15 @@
         <v>8</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>327</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2">
         <v>69.900000000000006</v>
@@ -4159,15 +4107,15 @@
         <v>8</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>328</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2">
         <v>59.9</v>
@@ -4179,15 +4127,15 @@
         <v>8</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>329</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2">
         <v>59.9</v>
@@ -4199,15 +4147,15 @@
         <v>8</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>330</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2">
         <v>79.900000000000006</v>
@@ -4219,15 +4167,15 @@
         <v>8</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>331</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2">
         <v>89.9</v>
@@ -4239,15 +4187,15 @@
         <v>8</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>332</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2">
         <v>89.9</v>
@@ -4259,15 +4207,15 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>333</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2">
         <v>89.9</v>
@@ -4279,15 +4227,15 @@
         <v>8</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>334</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2">
         <v>94.9</v>
@@ -4299,15 +4247,15 @@
         <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>335</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2">
         <v>89.9</v>
@@ -4319,15 +4267,15 @@
         <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>336</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2">
         <v>104.8</v>
@@ -4339,15 +4287,15 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>337</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C81" s="2">
         <v>109</v>
@@ -4359,15 +4307,15 @@
         <v>8</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>338</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C82" s="2">
         <v>104</v>
@@ -4379,15 +4327,15 @@
         <v>8</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>339</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2">
         <v>114.8</v>
@@ -4399,15 +4347,15 @@
         <v>8</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>346</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C84" s="2">
         <v>59.9</v>
@@ -4419,15 +4367,15 @@
         <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>347</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2">
         <v>59.9</v>
@@ -4439,15 +4387,15 @@
         <v>8</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>372</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2">
         <v>69.900000000000006</v>
@@ -4459,15 +4407,15 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>373</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2">
         <v>69.900000000000006</v>
@@ -4479,15 +4427,15 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>374</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C88" s="2">
         <v>69.900000000000006</v>
@@ -4499,15 +4447,15 @@
         <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>390</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C89" s="2">
         <v>39.9</v>
@@ -4519,15 +4467,15 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>407</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2">
         <v>35</v>
@@ -4539,15 +4487,15 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>408</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C91" s="2">
         <v>39.9</v>
@@ -4559,15 +4507,15 @@
         <v>8</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>409</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2">
         <v>69.900000000000006</v>
@@ -4579,15 +4527,15 @@
         <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>410</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C93" s="2">
         <v>79.900000000000006</v>
@@ -4599,15 +4547,15 @@
         <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>411</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C94" s="2">
         <v>69.900000000000006</v>
@@ -4619,15 +4567,15 @@
         <v>8</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>412</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C95" s="2">
         <v>72.900000000000006</v>
@@ -4639,15 +4587,15 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>413</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2">
         <v>129.9</v>
@@ -4659,15 +4607,15 @@
         <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>414</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C97" s="2">
         <v>44.9</v>
@@ -4679,15 +4627,15 @@
         <v>8</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>415</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2">
         <v>49.9</v>
@@ -4699,15 +4647,15 @@
         <v>8</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>416</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2">
         <v>45</v>
@@ -4719,15 +4667,15 @@
         <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>417</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C100" s="2">
         <v>105</v>
@@ -4739,15 +4687,15 @@
         <v>8</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>418</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C101" s="2">
         <v>115</v>
@@ -4759,15 +4707,15 @@
         <v>8</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>419</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C102" s="2">
         <v>115</v>
@@ -4779,15 +4727,15 @@
         <v>8</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>420</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2">
         <v>79.900000000000006</v>
@@ -4799,15 +4747,15 @@
         <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>421</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C104" s="2">
         <v>79.900000000000006</v>
@@ -4819,15 +4767,15 @@
         <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>422</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2">
         <v>79.900000000000006</v>
@@ -4839,15 +4787,15 @@
         <v>8</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>423</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C106" s="2">
         <v>65</v>
@@ -4859,15 +4807,15 @@
         <v>8</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>424</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C107" s="2">
         <v>54</v>
@@ -4879,15 +4827,15 @@
         <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>425</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C108" s="2">
         <v>54</v>
@@ -4899,15 +4847,15 @@
         <v>8</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>426</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2">
         <v>54</v>
@@ -4919,15 +4867,15 @@
         <v>8</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>427</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C110" s="2">
         <v>54</v>
@@ -4939,15 +4887,15 @@
         <v>8</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>428</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C111" s="2">
         <v>54</v>
@@ -4959,15 +4907,15 @@
         <v>8</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>430</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C112" s="2">
         <v>54</v>
@@ -4979,15 +4927,15 @@
         <v>8</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>431</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2">
         <v>41.9</v>
@@ -4999,15 +4947,15 @@
         <v>8</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>432</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2">
         <v>85</v>
@@ -5019,15 +4967,15 @@
         <v>8</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>433</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2">
         <v>94.9</v>
@@ -5039,15 +4987,15 @@
         <v>8</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>434</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2">
         <v>94.9</v>
@@ -5059,15 +5007,15 @@
         <v>8</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>435</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C117" s="2">
         <v>75</v>
@@ -5079,15 +5027,15 @@
         <v>8</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>468</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C118" s="2">
         <v>89.9</v>
@@ -5099,15 +5047,15 @@
         <v>8</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>469</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C119" s="2">
         <v>109</v>
@@ -5119,15 +5067,15 @@
         <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>470</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C120" s="2">
         <v>129.9</v>
@@ -5139,15 +5087,15 @@
         <v>8</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>471</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C121" s="2">
         <v>99.9</v>
@@ -5159,15 +5107,15 @@
         <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>472</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C122" s="2">
         <v>129.9</v>
@@ -5179,15 +5127,15 @@
         <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>473</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C123" s="2">
         <v>99.9</v>
@@ -5199,15 +5147,15 @@
         <v>8</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>474</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C124" s="2">
         <v>89.9</v>
@@ -5219,15 +5167,15 @@
         <v>8</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>475</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C125" s="2">
         <v>129.9</v>
@@ -5239,15 +5187,15 @@
         <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>476</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C126" s="2">
         <v>124.9</v>
@@ -5259,15 +5207,15 @@
         <v>8</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>477</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2">
         <v>135</v>
@@ -5279,15 +5227,15 @@
         <v>8</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>478</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C128" s="2">
         <v>129.9</v>
@@ -5299,15 +5247,15 @@
         <v>8</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>486</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C129" s="2">
         <v>135</v>
@@ -5319,15 +5267,15 @@
         <v>8</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C130" s="2">
         <v>99.9</v>
@@ -5339,3681 +5287,3687 @@
         <v>8</v>
       </c>
       <c r="F130" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="B140" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="C140" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="D140" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="D141" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B142" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="C142" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="D142" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="C143" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
+      <c r="D143" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B144" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C144" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="C145" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="C146" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="D146" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C147" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+      <c r="D147" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
+      <c r="C148" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="D148" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
+      <c r="C149" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="D150" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B151" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="D151" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="F151" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+    </row>
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B152" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="D152" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+    </row>
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B153" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C153" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="B154" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C154" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="B155" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="C155" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B156" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C156" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+      <c r="B157" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="C157" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="B158" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="C158" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="B159" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="B160" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="C160" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="C161" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="B162" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="C162" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+      <c r="D162" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B163" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C163" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F152" s="5" t="s">
+      <c r="B164" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="C164" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B165" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="C165" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B166" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+      <c r="C166" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="D166" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+    </row>
+    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="C167" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="C168" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="C169" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="D169" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B170" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="C170" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+      <c r="C171" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="D171" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C162" s="8" t="s">
+    </row>
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+      <c r="B172" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="C172" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+      <c r="B173" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="C173" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="B174" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="C174" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+      <c r="D174" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C175" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F166" s="5" t="s">
+      <c r="B176" s="9" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="C176" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B177" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+      <c r="C177" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+      <c r="C178" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C179" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D169" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+      <c r="D179" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C180" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D170" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+      <c r="D180" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C181" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F171" s="5" t="s">
+      <c r="B182" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+      <c r="C182" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+      <c r="C183" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+      <c r="C184" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C185" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D174" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+      <c r="D185" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B175" s="9" t="s">
+    </row>
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="B186" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D175" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B176" s="9" t="s">
+      <c r="D186" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="B187" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B177" s="9" t="s">
+      <c r="D187" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="B188" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D177" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B178" s="9" t="s">
+      <c r="D188" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="B189" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D178" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B179" s="9" t="s">
+      <c r="D189" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="B190" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+      <c r="C190" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B191" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="C191" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B192" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="C192" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F192" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B182" s="9" t="s">
+    </row>
+    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+      <c r="B193" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="C193" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+      <c r="B194" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="C194" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+      <c r="B195" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="C195" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="B196" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D185" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F185" s="5" t="s">
+      <c r="C196" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+      <c r="D196" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B186" s="9" t="s">
+    </row>
+    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F186" s="5" t="s">
+      <c r="B197" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B187" s="9" t="s">
+      <c r="D197" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F187" s="5" t="s">
+      <c r="B198" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B188" s="9" t="s">
+      <c r="D198" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F188" s="5" t="s">
+      <c r="B199" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B189" s="9" t="s">
+      <c r="D199" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F189" s="5" t="s">
+      <c r="B200" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B190" s="9" t="s">
+      <c r="D200" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+      <c r="B201" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F191" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="C201" s="10">
         <v>30</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C202" s="10">
         <v>30</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C203" s="10">
         <v>30</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="C204" s="10">
         <v>30</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C205" s="10">
         <v>30</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="C206" s="10">
         <v>12</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C207" s="10">
         <v>12</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C208" s="10">
         <v>12</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C209" s="10">
         <v>16</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C210" s="10">
         <v>16</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F210" s="9"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C211" s="10">
         <v>16</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F211" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="212" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="C212" s="10">
         <v>16</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F212" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>477</v>
+        <v>432</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>764</v>
       </c>
       <c r="C213" s="12">
         <v>110</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="C214" s="12">
         <v>110</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E214" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="C215" s="12">
         <v>110</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="C216" s="12">
         <v>110</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E216" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="C217" s="12">
         <v>120</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E217" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="C218" s="12">
         <v>120</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E218" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="C219" s="12">
         <v>120</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="C220" s="12">
         <v>120</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E220" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="C221" s="12">
         <v>90</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="C222" s="12">
         <v>120</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E222" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="C223" s="12">
         <v>120</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E223" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="C224" s="12">
         <v>120</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E224" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="C225" s="12">
         <v>120</v>
       </c>
       <c r="D225" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E225" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="C226" s="12">
         <v>120</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E226" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="C227" s="12">
         <v>120</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="C228" s="12">
         <v>120</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E228" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="C229" s="12">
         <v>120</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E229" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="C230" s="12">
         <v>120</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="C231" s="12">
         <v>120</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E231" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="C232" s="12">
         <v>120</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E232" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="C233" s="12">
         <v>120</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E233" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="C234" s="12">
         <v>120</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E234" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="C235" s="12">
         <v>120</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E235" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="C236" s="12">
         <v>130</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E236" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C237" s="12">
         <v>130</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E237" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="C238" s="12">
         <v>130</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E238" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="C239" s="12">
         <v>130</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E239" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="C240" s="12">
         <v>130</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="C241" s="12">
         <v>130</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E241" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="C242" s="12">
         <v>130</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E242" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="C243" s="12">
         <v>130</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E243" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11" t="s">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>571</v>
+        <v>526</v>
       </c>
       <c r="C244" s="12">
         <v>130</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E244" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="C245" s="12">
         <v>120</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>576</v>
+        <v>531</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>577</v>
+        <v>532</v>
       </c>
       <c r="C246" s="13">
         <v>150</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>580</v>
+        <v>535</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>581</v>
+        <v>536</v>
       </c>
       <c r="C247" s="13">
         <v>50</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="C248" s="14">
         <v>116.6</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>586</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="C249" s="14">
         <v>220</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="C250" s="14">
         <v>88</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>592</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>593</v>
+        <v>548</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="C251" s="14">
         <v>176</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>595</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
       <c r="C252" s="14">
         <v>74.8</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>598</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="C253" s="14">
         <v>94.6</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>601</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>602</v>
+        <v>557</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
       <c r="C254" s="14">
         <v>176</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="C255" s="14">
         <v>103.4</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="C256" s="14">
         <v>125.4</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="C257" s="14">
         <v>125.4</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="C258" s="14">
         <v>103.4</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>617</v>
+        <v>572</v>
       </c>
       <c r="C259" s="14">
         <v>187</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>618</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>619</v>
+        <v>574</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>620</v>
+        <v>575</v>
       </c>
       <c r="C260" s="14">
         <v>170</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>621</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>622</v>
+        <v>577</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
       <c r="C261" s="14">
         <v>198</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>624</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>626</v>
+        <v>581</v>
       </c>
       <c r="C262" s="14">
         <v>118.8</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>627</v>
+        <v>582</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>628</v>
+        <v>583</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="C263" s="14">
         <v>400</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>633</v>
+        <v>588</v>
       </c>
       <c r="C264" s="14">
         <v>249.9</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>634</v>
+        <v>589</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>635</v>
+        <v>590</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>636</v>
+        <v>591</v>
       </c>
       <c r="C265" s="14">
         <v>110</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>637</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>638</v>
+        <v>593</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>639</v>
+        <v>594</v>
       </c>
       <c r="C266" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>640</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>641</v>
+        <v>596</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>642</v>
+        <v>597</v>
       </c>
       <c r="C267" s="14">
         <v>35</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>643</v>
+        <v>598</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>644</v>
+        <v>599</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="C268" s="14">
         <v>200</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>646</v>
+        <v>759</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>647</v>
+        <v>601</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="C269" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
       <c r="C270" s="14">
         <v>90</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>653</v>
+        <v>607</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>654</v>
+        <v>608</v>
       </c>
       <c r="C271" s="14">
         <v>149.9</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>656</v>
+        <v>610</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="C272" s="14">
         <v>199.9</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>658</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>659</v>
+        <v>613</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>660</v>
+        <v>614</v>
       </c>
       <c r="C273" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="C274" s="14">
         <v>250</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>664</v>
+        <v>618</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
       <c r="C275" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>667</v>
+        <v>621</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>668</v>
+        <v>622</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
       <c r="C276" s="14">
         <v>69.900000000000006</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>671</v>
+        <v>625</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>672</v>
+        <v>626</v>
       </c>
       <c r="C277" s="14">
         <v>89.9</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>675</v>
+        <v>629</v>
       </c>
       <c r="C278" s="14">
         <v>399.9</v>
       </c>
       <c r="D278" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F278" s="12" t="s">
         <v>630</v>
-      </c>
-      <c r="E278" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F278" s="12" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>678</v>
+        <v>632</v>
       </c>
       <c r="C279" s="14">
         <v>149.9</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>679</v>
+        <v>633</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>680</v>
+        <v>634</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>678</v>
+        <v>632</v>
       </c>
       <c r="C280" s="14">
         <v>110</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>681</v>
+        <v>635</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>682</v>
+        <v>636</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>678</v>
+        <v>632</v>
       </c>
       <c r="C281" s="14">
         <v>89.9</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>683</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>684</v>
+        <v>638</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>685</v>
+        <v>639</v>
       </c>
       <c r="C282" s="14">
         <v>48</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>687</v>
+        <v>641</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>688</v>
+        <v>642</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>689</v>
+        <v>643</v>
       </c>
       <c r="C283" s="14">
         <v>210</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>690</v>
+        <v>644</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>692</v>
+        <v>646</v>
       </c>
       <c r="C284" s="14">
         <v>468</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="C285" s="14">
         <v>468</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>696</v>
+        <v>650</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C286" s="14">
         <v>230</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>699</v>
+        <v>653</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="C287" s="14">
         <v>230</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>702</v>
+        <v>656</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>703</v>
+        <v>657</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>704</v>
+        <v>658</v>
       </c>
       <c r="C288" s="14">
         <v>230</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>705</v>
+        <v>659</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>706</v>
+        <v>660</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>707</v>
+        <v>661</v>
       </c>
       <c r="C289" s="14">
         <v>190</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>708</v>
+        <v>662</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>709</v>
+        <v>663</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>710</v>
+        <v>664</v>
       </c>
       <c r="C290" s="14">
         <v>198</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>711</v>
+        <v>665</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>712</v>
+        <v>666</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>713</v>
+        <v>667</v>
       </c>
       <c r="C291" s="14">
         <v>38</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>714</v>
+        <v>668</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>715</v>
+        <v>669</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="C292" s="14">
         <v>38</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>717</v>
+        <v>671</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>719</v>
+        <v>673</v>
       </c>
       <c r="C293" s="14">
         <v>160</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>720</v>
+        <v>674</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>722</v>
+        <v>676</v>
       </c>
       <c r="C294" s="14">
         <v>38</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>723</v>
+        <v>677</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>724</v>
+        <v>678</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>725</v>
+        <v>679</v>
       </c>
       <c r="C295" s="14">
         <v>72</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>727</v>
+        <v>681</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>728</v>
+        <v>682</v>
       </c>
       <c r="C296" s="14">
         <v>210</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>729</v>
+        <v>683</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>730</v>
+        <v>684</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="C297" s="14">
         <v>350</v>
       </c>
       <c r="D297" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F297" s="12" t="s">
         <v>686</v>
-      </c>
-      <c r="E297" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F297" s="12" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>733</v>
+        <v>687</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>734</v>
+        <v>688</v>
       </c>
       <c r="C298" s="14">
         <v>55</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>735</v>
+        <v>689</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>736</v>
+        <v>690</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="C299" s="14">
         <v>38</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>738</v>
+        <v>692</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>739</v>
+        <v>693</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>740</v>
+        <v>694</v>
       </c>
       <c r="C300" s="14">
         <v>490</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>741</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>742</v>
+        <v>696</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>743</v>
+        <v>697</v>
       </c>
       <c r="C301" s="14">
         <v>70</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>745</v>
+        <v>699</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>747</v>
+        <v>701</v>
       </c>
       <c r="C302" s="14">
         <v>42</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>750</v>
+        <v>704</v>
       </c>
       <c r="C303" s="14">
         <v>100</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>753</v>
+        <v>707</v>
       </c>
       <c r="C304" s="14">
         <v>48</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>754</v>
+        <v>708</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
-        <v>755</v>
+        <v>709</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>756</v>
+        <v>710</v>
       </c>
       <c r="C305" s="14">
         <v>25</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>757</v>
+        <v>711</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>759</v>
+        <v>713</v>
       </c>
       <c r="C306" s="14">
         <v>42</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>760</v>
+        <v>714</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
-        <v>761</v>
+        <v>715</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="C307" s="14">
         <v>55</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>763</v>
+        <v>717</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
-        <v>764</v>
+        <v>718</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>765</v>
+        <v>719</v>
       </c>
       <c r="C308" s="14">
         <v>35</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>766</v>
+        <v>720</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
-        <v>767</v>
+        <v>721</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="C309" s="14">
         <v>18</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>769</v>
+        <v>723</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="C310" s="14">
         <v>48</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="C311" s="14">
         <v>52</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="C312" s="14">
         <v>65</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>778</v>
+        <v>732</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="C313" s="14">
         <v>30</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="C314" s="14">
         <v>120</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\OneDrive\Área de Trabalho\cocriativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/508ea63fb0320d71/Desktop/lojacocriativo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47903E7B-D5A7-4679-A230-00A6F84EDEBC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="735">
   <si>
     <t>ID</t>
   </si>
@@ -1318,9 +1318,6 @@
     <t>Sabonete Glicerinado 100g Lavanda</t>
   </si>
   <si>
-    <t>vis_1</t>
-  </si>
-  <si>
     <t>VISIONAIRE</t>
   </si>
   <si>
@@ -1372,30 +1369,12 @@
     <t>/vis/vis_6.jpg</t>
   </si>
   <si>
-    <t>vis_7</t>
-  </si>
-  <si>
-    <t>Babylook Azul - Lisa</t>
-  </si>
-  <si>
     <t>/vis/vis_7.jpg</t>
   </si>
   <si>
-    <t>vis_8</t>
-  </si>
-  <si>
-    <t>Babylook Branca - Summer Closure</t>
-  </si>
-  <si>
     <t>/vis/vis_8.jpg</t>
   </si>
   <si>
-    <t>vis_9</t>
-  </si>
-  <si>
-    <t>Saia Preta</t>
-  </si>
-  <si>
     <t>/vis/vis_9.jpg</t>
   </si>
   <si>
@@ -1408,30 +1387,12 @@
     <t>/vis/vis_10.jpg</t>
   </si>
   <si>
-    <t>vis_11</t>
-  </si>
-  <si>
-    <t>Camisa Cinza - Logo</t>
-  </si>
-  <si>
     <t>/vis/vis_11.jpg</t>
   </si>
   <si>
-    <t>vis_12</t>
-  </si>
-  <si>
-    <t>Camisa Cinza - Resilience</t>
-  </si>
-  <si>
     <t>/vis/vis_12.jpg</t>
   </si>
   <si>
-    <t>vis_13</t>
-  </si>
-  <si>
-    <t>Camisa Cinza - Rock And Road</t>
-  </si>
-  <si>
     <t>/vis/vis_13.jpg</t>
   </si>
   <si>
@@ -1498,21 +1459,9 @@
     <t>/vis/vis_20.jpg</t>
   </si>
   <si>
-    <t>vis_21</t>
-  </si>
-  <si>
-    <t>Camisa Preta - A Vida Nao E So Danca</t>
-  </si>
-  <si>
     <t>/vis/vis_21.jpg</t>
   </si>
   <si>
-    <t>vis_22</t>
-  </si>
-  <si>
-    <t>Camisa Preta - Logo</t>
-  </si>
-  <si>
     <t>/vis/vis_22.jpg</t>
   </si>
   <si>
@@ -1525,96 +1474,54 @@
     <t>/vis/vis_23.jpg</t>
   </si>
   <si>
-    <t>vis_24</t>
-  </si>
-  <si>
-    <t>Oversized Preta - Guardian Serenity</t>
-  </si>
-  <si>
-    <t>/vis/vis_24.jpg</t>
-  </si>
-  <si>
     <t>vis_25</t>
   </si>
   <si>
     <t>Oversized Preta - A Vida E Uma Danca</t>
   </si>
   <si>
-    <t>/vis/vis_25.jpg</t>
-  </si>
-  <si>
     <t>vis_26</t>
   </si>
   <si>
     <t>Oversized Preta - Autumnal Heart</t>
   </si>
   <si>
-    <t>/vis/vis_26.jpg</t>
-  </si>
-  <si>
     <t>vis_27</t>
   </si>
   <si>
     <t>Oversized Preta - Pink Floyd</t>
   </si>
   <si>
-    <t>/vis/vis_27.jpg</t>
-  </si>
-  <si>
     <t>vis_28</t>
   </si>
   <si>
     <t>Oversized Off White - Zen Oasis</t>
   </si>
   <si>
-    <t>/vis/vis_28.jpg</t>
-  </si>
-  <si>
     <t>vis_29</t>
   </si>
   <si>
     <t>Oversized Off White - Quoth The Raven</t>
   </si>
   <si>
-    <t>/vis/vis_29.jpg</t>
-  </si>
-  <si>
     <t>vis_30</t>
   </si>
   <si>
     <t>Oversized Preta - Coringa</t>
   </si>
   <si>
-    <t>/vis/vis_30.jpg</t>
-  </si>
-  <si>
     <t>vis_31</t>
   </si>
   <si>
     <t>Oversized Off White - Piglet Paradise</t>
   </si>
   <si>
-    <t>/vis/vis_31.jpg</t>
-  </si>
-  <si>
-    <t>vis_32</t>
-  </si>
-  <si>
-    <t>Oversizes Off White - Guardian Serenity</t>
-  </si>
-  <si>
-    <t>/vis/vis_32.jpg</t>
-  </si>
-  <si>
     <t>vis_33</t>
   </si>
   <si>
     <t>Camisa Cinza - Savage</t>
   </si>
   <si>
-    <t>/vis/vis_33.jpg</t>
-  </si>
-  <si>
     <t>sil_1</t>
   </si>
   <si>
@@ -2314,7 +2221,10 @@
     <t>/dp/57.png</t>
   </si>
   <si>
-    <t>Cropped Preta - A Vida  Uma Dança</t>
+    <t>vis_35</t>
+  </si>
+  <si>
+    <t>camisa preta frase</t>
   </si>
 </sst>
 </file>
@@ -2326,13 +2236,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2366,6 +2269,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2426,43 +2335,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,10 +2593,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="L216" sqref="L216"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213:C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2727,7 +2638,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2747,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2767,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2787,7 +2698,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2807,7 +2718,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2827,7 +2738,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2847,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2867,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2887,7 +2798,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2967,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2987,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3067,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3367,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3947,7 +3858,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4207,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4487,7 +4398,7 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4587,7 +4498,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4827,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4847,7 +4758,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4867,7 +4778,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4887,7 +4798,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4907,7 +4818,7 @@
         <v>8</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5127,7 +5038,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5287,7 +5198,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5307,7 +5218,7 @@
         <v>239</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5327,7 +5238,7 @@
         <v>239</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5347,7 +5258,7 @@
         <v>239</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5367,7 +5278,7 @@
         <v>239</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5387,7 +5298,7 @@
         <v>239</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5407,7 +5318,7 @@
         <v>239</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5427,7 +5338,7 @@
         <v>239</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5447,7 +5358,7 @@
         <v>239</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5467,7 +5378,7 @@
         <v>239</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5487,7 +5398,7 @@
         <v>239</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5507,7 +5418,7 @@
         <v>239</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5527,7 +5438,7 @@
         <v>239</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5547,7 +5458,7 @@
         <v>239</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5567,7 +5478,7 @@
         <v>239</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5587,7 +5498,7 @@
         <v>239</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5607,7 +5518,7 @@
         <v>239</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5627,7 +5538,7 @@
         <v>239</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5647,7 +5558,7 @@
         <v>239</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5667,7 +5578,7 @@
         <v>239</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5687,7 +5598,7 @@
         <v>239</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -6931,682 +6842,613 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
+      <c r="A213" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D213" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B213" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="C213" s="12">
-        <v>110</v>
-      </c>
-      <c r="D213" s="11" t="s">
+      <c r="E213" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="E213" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B214" s="11" t="s">
+      <c r="A214" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C214" s="12">
-        <v>110</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E214" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>437</v>
-      </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B215" s="11" t="s">
+      <c r="A215" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C215" s="12">
-        <v>110</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E215" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>440</v>
-      </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B216" s="11" t="s">
+      <c r="A216" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C216" s="12">
-        <v>110</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B217" s="11" t="s">
+      <c r="A217" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C217" s="12">
-        <v>120</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B218" s="11" t="s">
+      <c r="A218" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C218" s="12">
-        <v>120</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E218" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" s="11" t="s">
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="11" t="s">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B219" s="11" t="s">
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C219" s="12">
-        <v>120</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E219" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B220" s="11" t="s">
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C220" s="12">
-        <v>120</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E220" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F220" s="11" t="s">
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="11" t="s">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B221" s="11" t="s">
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C221" s="12">
-        <v>90</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E221" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B222" s="11" t="s">
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C222" s="12">
-        <v>120</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E222" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B223" s="11" t="s">
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="C223" s="12">
-        <v>120</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B224" s="11" t="s">
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C224" s="12">
-        <v>120</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E224" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B225" s="11" t="s">
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C225" s="12">
-        <v>120</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E225" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F225" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B226" s="11" t="s">
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C226" s="12">
-        <v>120</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F226" s="11" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B227" s="11" t="s">
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="C227" s="12">
-        <v>120</v>
-      </c>
-      <c r="D227" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E227" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F227" s="11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B228" s="11" t="s">
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C228" s="12">
-        <v>120</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E228" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F228" s="11" t="s">
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" s="11" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C229" s="12">
-        <v>120</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E229" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="11" t="s">
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B230" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C230" s="12">
-        <v>120</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E230" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" s="11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C231" s="12">
-        <v>120</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E231" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C232" s="12">
-        <v>120</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E232" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F232" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C233" s="12">
-        <v>120</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E233" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F233" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C234" s="12">
-        <v>120</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E234" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F234" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C235" s="12">
-        <v>120</v>
-      </c>
-      <c r="D235" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E235" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="11" t="s">
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="11" t="s">
+      <c r="B236" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="C236" s="13">
+        <v>150</v>
+      </c>
+      <c r="D236" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C236" s="12">
-        <v>130</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" s="11" t="s">
+      <c r="E236" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F236" s="13" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
+      <c r="A237" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C237" s="12">
-        <v>130</v>
-      </c>
-      <c r="D237" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" s="11" t="s">
+      <c r="C237" s="13">
+        <v>50</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F237" s="13" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="11" t="s">
+      <c r="A238" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C238" s="12">
-        <v>130</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="11" t="s">
+      <c r="C238" s="14">
+        <v>116.6</v>
+      </c>
+      <c r="D238" s="12" t="s">
         <v>509</v>
       </c>
+      <c r="E238" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B239" s="11" t="s">
+      <c r="A239" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C239" s="12">
-        <v>130</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F239" s="11" t="s">
+      <c r="B239" s="12" t="s">
         <v>512</v>
       </c>
+      <c r="C239" s="14">
+        <v>220</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B240" s="11" t="s">
+      <c r="A240" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C240" s="12">
-        <v>130</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F240" s="11" t="s">
+      <c r="B240" s="12" t="s">
         <v>515</v>
       </c>
+      <c r="C240" s="14">
+        <v>88</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B241" s="11" t="s">
+      <c r="A241" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C241" s="12">
-        <v>130</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F241" s="11" t="s">
+      <c r="B241" s="12" t="s">
         <v>518</v>
       </c>
+      <c r="C241" s="14">
+        <v>176</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B242" s="11" t="s">
+      <c r="A242" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C242" s="12">
-        <v>130</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E242" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" s="11" t="s">
+      <c r="B242" s="12" t="s">
         <v>521</v>
       </c>
+      <c r="C242" s="14">
+        <v>74.8</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B243" s="11" t="s">
+      <c r="A243" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="12">
-        <v>130</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F243" s="11" t="s">
+      <c r="B243" s="12" t="s">
         <v>524</v>
       </c>
+      <c r="C243" s="14">
+        <v>94.6</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B244" s="11" t="s">
+      <c r="A244" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C244" s="12">
-        <v>130</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F244" s="11" t="s">
+      <c r="B244" s="12" t="s">
         <v>527</v>
       </c>
+      <c r="C244" s="14">
+        <v>176</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B245" s="11" t="s">
+      <c r="A245" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C245" s="12">
-        <v>120</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F245" s="11" t="s">
+      <c r="B245" s="12" t="s">
         <v>530</v>
+      </c>
+      <c r="C245" s="14">
+        <v>103.4</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="C246" s="13">
-        <v>150</v>
+        <v>533</v>
+      </c>
+      <c r="C246" s="14">
+        <v>125.4</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F246" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" s="12" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7615,216 +7457,216 @@
         <v>535</v>
       </c>
       <c r="B247" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C247" s="14">
+        <v>125.4</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E247" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="C247" s="13">
-        <v>50</v>
-      </c>
-      <c r="D247" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="E247" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F247" s="13" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B248" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="C248" s="14">
+        <v>103.4</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E248" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="12" t="s">
         <v>539</v>
-      </c>
-      <c r="C248" s="14">
-        <v>116.6</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C249" s="14">
+        <v>187</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="C249" s="14">
-        <v>220</v>
-      </c>
-      <c r="D249" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E249" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F249" s="12" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C250" s="14">
+        <v>170</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C250" s="14">
-        <v>88</v>
-      </c>
-      <c r="D250" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F250" s="12" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C251" s="14">
+        <v>198</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="C251" s="14">
-        <v>176</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F251" s="12" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C252" s="14">
+        <v>118.8</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>552</v>
-      </c>
-      <c r="C252" s="14">
-        <v>74.8</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E252" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F252" s="12" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C253" s="14">
+        <v>400</v>
+      </c>
+      <c r="D253" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="B253" s="12" t="s">
+      <c r="E253" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F253" s="12" t="s">
         <v>555</v>
-      </c>
-      <c r="C253" s="14">
-        <v>94.6</v>
-      </c>
-      <c r="D253" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E253" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F253" s="12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="C254" s="14">
+        <v>249.9</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F254" s="12" t="s">
         <v>558</v>
-      </c>
-      <c r="C254" s="14">
-        <v>176</v>
-      </c>
-      <c r="D254" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E254" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F254" s="12" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="C255" s="14">
+        <v>110</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F255" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="C255" s="14">
-        <v>103.4</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E255" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F255" s="12" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="C256" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F256" s="12" t="s">
         <v>564</v>
-      </c>
-      <c r="C256" s="14">
-        <v>125.4</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E256" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F256" s="12" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B257" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="B257" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="C257" s="14">
-        <v>125.4</v>
+        <v>35</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="F257" s="12" t="s">
         <v>567</v>
@@ -7838,470 +7680,470 @@
         <v>569</v>
       </c>
       <c r="C258" s="14">
-        <v>103.4</v>
+        <v>200</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>570</v>
+        <v>728</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B259" s="12" t="s">
+      <c r="C259" s="14">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F259" s="12" t="s">
         <v>572</v>
-      </c>
-      <c r="C259" s="14">
-        <v>187</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E259" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F259" s="12" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B260" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="C260" s="14">
+        <v>90</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F260" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="C260" s="14">
-        <v>170</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E260" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B261" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="C261" s="14">
+        <v>149.9</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F261" s="12" t="s">
         <v>578</v>
-      </c>
-      <c r="C261" s="14">
-        <v>198</v>
-      </c>
-      <c r="D261" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E261" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F261" s="12" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B262" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="C262" s="14">
+        <v>199.9</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F262" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="C262" s="14">
-        <v>118.8</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="E262" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F262" s="12" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B263" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="B263" s="12" t="s">
-        <v>584</v>
-      </c>
       <c r="C263" s="14">
-        <v>400</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C264" s="14">
-        <v>249.9</v>
+        <v>250</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E264" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C265" s="14">
-        <v>110</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E265" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C266" s="14">
-        <v>79.900000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E266" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C267" s="14">
-        <v>35</v>
+        <v>89.9</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E267" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C268" s="14">
-        <v>200</v>
+        <v>399.9</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>759</v>
+        <v>599</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B269" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="B269" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="C269" s="14">
-        <v>79.900000000000006</v>
+        <v>149.9</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C270" s="14">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C271" s="14">
-        <v>149.9</v>
+        <v>89.9</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C272" s="14">
-        <v>199.9</v>
+        <v>48</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C273" s="14">
-        <v>79.900000000000006</v>
+        <v>210</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C274" s="14">
-        <v>250</v>
+        <v>468</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C275" s="14">
-        <v>79.900000000000006</v>
+        <v>468</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C276" s="14">
-        <v>69.900000000000006</v>
+        <v>230</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C277" s="14">
-        <v>89.9</v>
+        <v>230</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C278" s="14">
-        <v>399.9</v>
+        <v>230</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E278" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C279" s="14">
-        <v>149.9</v>
+        <v>190</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C280" s="14">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B281" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="B281" s="12" t="s">
-        <v>632</v>
-      </c>
       <c r="C281" s="14">
-        <v>89.9</v>
+        <v>38</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>239</v>
@@ -8318,193 +8160,193 @@
         <v>639</v>
       </c>
       <c r="C282" s="14">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="B283" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="B283" s="12" t="s">
-        <v>643</v>
-      </c>
       <c r="C283" s="14">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B284" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="B284" s="12" t="s">
-        <v>646</v>
-      </c>
       <c r="C284" s="14">
-        <v>468</v>
+        <v>38</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B285" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="B285" s="12" t="s">
-        <v>649</v>
-      </c>
       <c r="C285" s="14">
-        <v>468</v>
+        <v>72</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="B286" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="B286" s="12" t="s">
-        <v>652</v>
-      </c>
       <c r="C286" s="14">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B287" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="B287" s="12" t="s">
-        <v>655</v>
-      </c>
       <c r="C287" s="14">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="B288" s="12" t="s">
-        <v>658</v>
-      </c>
       <c r="C288" s="14">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B289" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="B289" s="12" t="s">
-        <v>661</v>
-      </c>
       <c r="C289" s="14">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="B290" s="12" t="s">
-        <v>664</v>
-      </c>
       <c r="C290" s="14">
-        <v>198</v>
+        <v>490</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E290" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B291" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B291" s="12" t="s">
+      <c r="C291" s="14">
+        <v>70</v>
+      </c>
+      <c r="D291" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="C291" s="14">
-        <v>38</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>640</v>
-      </c>
       <c r="E291" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F291" s="12" t="s">
         <v>668</v>
@@ -8518,13 +8360,13 @@
         <v>670</v>
       </c>
       <c r="C292" s="14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F292" s="12" t="s">
         <v>671</v>
@@ -8538,13 +8380,13 @@
         <v>673</v>
       </c>
       <c r="C293" s="14">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F293" s="12" t="s">
         <v>674</v>
@@ -8558,13 +8400,13 @@
         <v>676</v>
       </c>
       <c r="C294" s="14">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>677</v>
@@ -8578,13 +8420,13 @@
         <v>679</v>
       </c>
       <c r="C295" s="14">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F295" s="12" t="s">
         <v>680</v>
@@ -8598,13 +8440,13 @@
         <v>682</v>
       </c>
       <c r="C296" s="14">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F296" s="12" t="s">
         <v>683</v>
@@ -8618,13 +8460,13 @@
         <v>685</v>
       </c>
       <c r="C297" s="14">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F297" s="12" t="s">
         <v>686</v>
@@ -8638,13 +8480,13 @@
         <v>688</v>
       </c>
       <c r="C298" s="14">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F298" s="12" t="s">
         <v>689</v>
@@ -8658,13 +8500,13 @@
         <v>691</v>
       </c>
       <c r="C299" s="14">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F299" s="12" t="s">
         <v>692</v>
@@ -8678,13 +8520,13 @@
         <v>694</v>
       </c>
       <c r="C300" s="14">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F300" s="12" t="s">
         <v>695</v>
@@ -8698,276 +8540,76 @@
         <v>697</v>
       </c>
       <c r="C301" s="14">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="E301" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B302" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="B302" s="12" t="s">
-        <v>701</v>
-      </c>
       <c r="C302" s="14">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="E302" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B303" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="B303" s="12" t="s">
-        <v>704</v>
-      </c>
       <c r="C303" s="14">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="E303" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B304" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B304" s="12" t="s">
-        <v>707</v>
-      </c>
       <c r="C304" s="14">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="E304" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="B305" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="C305" s="14">
-        <v>25</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E305" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F305" s="12" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B306" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="C306" s="14">
-        <v>42</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E306" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F306" s="12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B307" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="C307" s="14">
-        <v>55</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F307" s="12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="B308" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="C308" s="14">
-        <v>35</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E308" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F308" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="B309" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="C309" s="14">
-        <v>18</v>
-      </c>
-      <c r="D309" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E309" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F309" s="12" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="B310" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="C310" s="14">
-        <v>48</v>
-      </c>
-      <c r="D310" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E310" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F310" s="12" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="B311" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="C311" s="14">
-        <v>52</v>
-      </c>
-      <c r="D311" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E311" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F311" s="12" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="B312" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="C312" s="14">
-        <v>65</v>
-      </c>
-      <c r="D312" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E312" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F312" s="12" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="B313" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="C313" s="14">
-        <v>30</v>
-      </c>
-      <c r="D313" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E313" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F313" s="12" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="B314" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="C314" s="14">
-        <v>120</v>
-      </c>
-      <c r="D314" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="E314" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F314" s="12" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/508ea63fb0320d71/Desktop/lojacocriativo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47903E7B-D5A7-4679-A230-00A6F84EDEBC}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE04DB1-B2EF-498F-9125-BACA49C5CD36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,9 +1321,6 @@
     <t>VISIONAIRE</t>
   </si>
   <si>
-    <t>/vis/vis_1.jpg</t>
-  </si>
-  <si>
     <t>vis_2</t>
   </si>
   <si>
@@ -1369,15 +1366,6 @@
     <t>/vis/vis_6.jpg</t>
   </si>
   <si>
-    <t>/vis/vis_7.jpg</t>
-  </si>
-  <si>
-    <t>/vis/vis_8.jpg</t>
-  </si>
-  <si>
-    <t>/vis/vis_9.jpg</t>
-  </si>
-  <si>
     <t>vis_10</t>
   </si>
   <si>
@@ -1387,15 +1375,6 @@
     <t>/vis/vis_10.jpg</t>
   </si>
   <si>
-    <t>/vis/vis_11.jpg</t>
-  </si>
-  <si>
-    <t>/vis/vis_12.jpg</t>
-  </si>
-  <si>
-    <t>/vis/vis_13.jpg</t>
-  </si>
-  <si>
     <t>vis_14</t>
   </si>
   <si>
@@ -1459,12 +1438,6 @@
     <t>/vis/vis_20.jpg</t>
   </si>
   <si>
-    <t>/vis/vis_21.jpg</t>
-  </si>
-  <si>
-    <t>/vis/vis_22.jpg</t>
-  </si>
-  <si>
     <t>vis_23</t>
   </si>
   <si>
@@ -1480,48 +1453,72 @@
     <t>Oversized Preta - A Vida E Uma Danca</t>
   </si>
   <si>
+    <t>/vis/vis_25.jpg</t>
+  </si>
+  <si>
     <t>vis_26</t>
   </si>
   <si>
     <t>Oversized Preta - Autumnal Heart</t>
   </si>
   <si>
+    <t>/vis/vis_26.jpg</t>
+  </si>
+  <si>
     <t>vis_27</t>
   </si>
   <si>
     <t>Oversized Preta - Pink Floyd</t>
   </si>
   <si>
+    <t>/vis/vis_27.jpg</t>
+  </si>
+  <si>
     <t>vis_28</t>
   </si>
   <si>
     <t>Oversized Off White - Zen Oasis</t>
   </si>
   <si>
+    <t>/vis/vis_28.jpg</t>
+  </si>
+  <si>
     <t>vis_29</t>
   </si>
   <si>
     <t>Oversized Off White - Quoth The Raven</t>
   </si>
   <si>
+    <t>/vis/vis_29.jpg</t>
+  </si>
+  <si>
     <t>vis_30</t>
   </si>
   <si>
     <t>Oversized Preta - Coringa</t>
   </si>
   <si>
+    <t>/vis/vis_30.jpg</t>
+  </si>
+  <si>
     <t>vis_31</t>
   </si>
   <si>
     <t>Oversized Off White - Piglet Paradise</t>
   </si>
   <si>
+    <t>/vis/vis_31.jpg</t>
+  </si>
+  <si>
     <t>vis_33</t>
   </si>
   <si>
     <t>Camisa Cinza - Savage</t>
   </si>
   <si>
+    <t>/vis/vis_33.jpg</t>
+  </si>
+  <si>
     <t>sil_1</t>
   </si>
   <si>
@@ -2225,6 +2222,9 @@
   </si>
   <si>
     <t>camisa preta frase</t>
+  </si>
+  <si>
+    <t>/vis/vis_35.jpg</t>
   </si>
 </sst>
 </file>
@@ -2595,11 +2595,14 @@
   </sheetPr>
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213:C235"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="I230" sqref="I230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2638,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2658,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2678,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2698,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2718,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2738,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2758,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2778,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2798,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2878,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2898,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -2978,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3278,7 +3281,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -3858,7 +3861,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4118,7 +4121,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4398,7 +4401,7 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4498,7 +4501,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4738,7 +4741,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4758,7 +4761,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4778,7 +4781,7 @@
         <v>8</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4798,7 +4801,7 @@
         <v>8</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -4818,7 +4821,7 @@
         <v>8</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5038,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5198,7 +5201,7 @@
         <v>8</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5218,7 +5221,7 @@
         <v>239</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5238,7 +5241,7 @@
         <v>239</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5258,7 +5261,7 @@
         <v>239</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5278,7 +5281,7 @@
         <v>239</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5298,7 +5301,7 @@
         <v>239</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5318,7 +5321,7 @@
         <v>239</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5338,7 +5341,7 @@
         <v>239</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5358,7 +5361,7 @@
         <v>239</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5378,7 +5381,7 @@
         <v>239</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5398,7 +5401,7 @@
         <v>239</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5418,7 +5421,7 @@
         <v>239</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5438,7 +5441,7 @@
         <v>239</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5458,7 +5461,7 @@
         <v>239</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5478,7 +5481,7 @@
         <v>239</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5498,7 +5501,7 @@
         <v>239</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5518,7 +5521,7 @@
         <v>239</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5538,7 +5541,7 @@
         <v>239</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5558,7 +5561,7 @@
         <v>239</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5578,7 +5581,7 @@
         <v>239</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5598,7 +5601,7 @@
         <v>239</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -6843,10 +6846,13 @@
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="B213" s="15" t="s">
-        <v>435</v>
+      <c r="C213" s="12">
+        <v>110</v>
       </c>
       <c r="D213" s="11" t="s">
         <v>432</v>
@@ -6854,16 +6860,19 @@
       <c r="E213" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F213" s="11" t="s">
-        <v>433</v>
+      <c r="F213" s="15" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B214" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B214" s="15" t="s">
-        <v>438</v>
+      <c r="C214" s="12">
+        <v>110</v>
       </c>
       <c r="D214" s="11" t="s">
         <v>432</v>
@@ -6871,16 +6880,19 @@
       <c r="E214" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F214" s="11" t="s">
-        <v>436</v>
+      <c r="F214" s="15" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B215" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B215" s="15" t="s">
-        <v>441</v>
+      <c r="C215" s="12">
+        <v>110</v>
       </c>
       <c r="D215" s="11" t="s">
         <v>432</v>
@@ -6888,16 +6900,19 @@
       <c r="E215" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F215" s="11" t="s">
-        <v>439</v>
+      <c r="F215" s="15" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B216" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="B216" s="15" t="s">
-        <v>444</v>
+      <c r="C216" s="12">
+        <v>120</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>432</v>
@@ -6905,16 +6920,19 @@
       <c r="E216" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F216" s="11" t="s">
-        <v>442</v>
+      <c r="F216" s="15" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B217" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="B217" s="15" t="s">
-        <v>447</v>
+      <c r="C217" s="12">
+        <v>120</v>
       </c>
       <c r="D217" s="11" t="s">
         <v>432</v>
@@ -6922,16 +6940,19 @@
       <c r="E217" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="11" t="s">
-        <v>445</v>
+      <c r="F217" s="15" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>453</v>
+        <v>449</v>
+      </c>
+      <c r="C218" s="12">
+        <v>120</v>
       </c>
       <c r="D218" s="11" t="s">
         <v>432</v>
@@ -6939,16 +6960,19 @@
       <c r="E218" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F218" s="11" t="s">
-        <v>448</v>
+      <c r="F218" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>459</v>
+        <v>452</v>
+      </c>
+      <c r="C219" s="12">
+        <v>120</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>432</v>
@@ -6956,16 +6980,19 @@
       <c r="E219" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F219" s="11" t="s">
-        <v>449</v>
+      <c r="F219" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
+      </c>
+      <c r="C220" s="12">
+        <v>120</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>432</v>
@@ -6973,16 +7000,19 @@
       <c r="E220" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F220" s="11" t="s">
-        <v>450</v>
+      <c r="F220" s="15" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
+      </c>
+      <c r="C221" s="12">
+        <v>120</v>
       </c>
       <c r="D221" s="11" t="s">
         <v>432</v>
@@ -6990,16 +7020,19 @@
       <c r="E221" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F221" s="11" t="s">
-        <v>451</v>
+      <c r="F221" s="15" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>468</v>
+        <v>461</v>
+      </c>
+      <c r="C222" s="12">
+        <v>120</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>432</v>
@@ -7007,16 +7040,19 @@
       <c r="E222" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>454</v>
+      <c r="F222" s="15" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>471</v>
+        <v>464</v>
+      </c>
+      <c r="C223" s="12">
+        <v>120</v>
       </c>
       <c r="D223" s="11" t="s">
         <v>432</v>
@@ -7024,16 +7060,19 @@
       <c r="E223" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>455</v>
+      <c r="F223" s="15" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>474</v>
+        <v>467</v>
+      </c>
+      <c r="C224" s="12">
+        <v>120</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>432</v>
@@ -7041,16 +7080,19 @@
       <c r="E224" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>456</v>
+      <c r="F224" s="15" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>477</v>
+        <v>470</v>
+      </c>
+      <c r="C225" s="12">
+        <v>120</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>432</v>
@@ -7058,16 +7100,19 @@
       <c r="E225" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>457</v>
+      <c r="F225" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>482</v>
+        <v>473</v>
+      </c>
+      <c r="C226" s="12">
+        <v>120</v>
       </c>
       <c r="D226" s="11" t="s">
         <v>432</v>
@@ -7075,16 +7120,19 @@
       <c r="E226" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>460</v>
+      <c r="F226" s="15" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>485</v>
+        <v>476</v>
+      </c>
+      <c r="C227" s="12">
+        <v>130</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>432</v>
@@ -7092,16 +7140,19 @@
       <c r="E227" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>463</v>
+      <c r="F227" s="15" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>487</v>
+        <v>479</v>
+      </c>
+      <c r="C228" s="12">
+        <v>130</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>432</v>
@@ -7109,16 +7160,19 @@
       <c r="E228" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>466</v>
+      <c r="F228" s="15" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
+      </c>
+      <c r="C229" s="12">
+        <v>130</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>432</v>
@@ -7126,16 +7180,19 @@
       <c r="E229" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F229" s="11" t="s">
-        <v>469</v>
+      <c r="F229" s="15" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>491</v>
+        <v>485</v>
+      </c>
+      <c r="C230" s="12">
+        <v>130</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>432</v>
@@ -7143,16 +7200,19 @@
       <c r="E230" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F230" s="11" t="s">
-        <v>472</v>
+      <c r="F230" s="15" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>493</v>
+        <v>488</v>
+      </c>
+      <c r="C231" s="12">
+        <v>130</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>432</v>
@@ -7160,16 +7220,19 @@
       <c r="E231" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F231" s="11" t="s">
-        <v>475</v>
+      <c r="F231" s="15" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="C232" s="12">
+        <v>130</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>432</v>
@@ -7177,16 +7240,19 @@
       <c r="E232" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F232" s="11" t="s">
-        <v>478</v>
+      <c r="F232" s="15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="C233" s="12">
+        <v>130</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>432</v>
@@ -7194,16 +7260,19 @@
       <c r="E233" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F233" s="11" t="s">
-        <v>479</v>
+      <c r="F233" s="15" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
+      </c>
+      <c r="C234" s="12">
+        <v>120</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>432</v>
@@ -7211,16 +7280,19 @@
       <c r="E234" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F234" s="11" t="s">
-        <v>480</v>
+      <c r="F234" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B235" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="B235" s="12" t="s">
-        <v>734</v>
+      <c r="C235" s="12">
+        <v>120</v>
       </c>
       <c r="D235" s="11" t="s">
         <v>432</v>
@@ -7228,1388 +7300,1388 @@
       <c r="E235" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F235" s="11" t="s">
-        <v>483</v>
+      <c r="F235" s="15" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B236" s="12" t="s">
         <v>500</v>
-      </c>
-      <c r="B236" s="12" t="s">
-        <v>501</v>
       </c>
       <c r="C236" s="13">
         <v>150</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B237" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>505</v>
       </c>
       <c r="C237" s="13">
         <v>50</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E237" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B238" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>508</v>
       </c>
       <c r="C238" s="14">
         <v>116.6</v>
       </c>
       <c r="D238" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="13" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B239" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="B239" s="12" t="s">
-        <v>512</v>
       </c>
       <c r="C239" s="14">
         <v>220</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E239" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B240" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>515</v>
       </c>
       <c r="C240" s="14">
         <v>88</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B241" s="12" t="s">
         <v>517</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>518</v>
       </c>
       <c r="C241" s="14">
         <v>176</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E241" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B242" s="12" t="s">
         <v>520</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>521</v>
       </c>
       <c r="C242" s="14">
         <v>74.8</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B243" s="12" t="s">
         <v>523</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>524</v>
       </c>
       <c r="C243" s="14">
         <v>94.6</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B244" s="12" t="s">
         <v>526</v>
-      </c>
-      <c r="B244" s="12" t="s">
-        <v>527</v>
       </c>
       <c r="C244" s="14">
         <v>176</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B245" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="C245" s="14">
         <v>103.4</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E245" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>532</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>533</v>
       </c>
       <c r="C246" s="14">
         <v>125.4</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C247" s="14">
         <v>125.4</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B248" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>538</v>
       </c>
       <c r="C248" s="14">
         <v>103.4</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B249" s="12" t="s">
         <v>540</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>541</v>
       </c>
       <c r="C249" s="14">
         <v>187</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B250" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>544</v>
       </c>
       <c r="C250" s="14">
         <v>170</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B251" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>547</v>
       </c>
       <c r="C251" s="14">
         <v>198</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B252" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="C252" s="14">
         <v>118.8</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B253" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="C253" s="14">
         <v>400</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B254" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="B254" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="C254" s="14">
         <v>249.9</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>559</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>560</v>
       </c>
       <c r="C255" s="14">
         <v>110</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B256" s="12" t="s">
         <v>562</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>563</v>
       </c>
       <c r="C256" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B257" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>566</v>
       </c>
       <c r="C257" s="14">
         <v>35</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B258" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="C258" s="14">
         <v>200</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B259" s="12" t="s">
         <v>570</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>571</v>
       </c>
       <c r="C259" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B260" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>574</v>
       </c>
       <c r="C260" s="14">
         <v>90</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B261" s="12" t="s">
         <v>576</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>577</v>
       </c>
       <c r="C261" s="14">
         <v>149.9</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B262" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="B262" s="12" t="s">
-        <v>580</v>
       </c>
       <c r="C262" s="14">
         <v>199.9</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B263" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>583</v>
       </c>
       <c r="C263" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B264" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>586</v>
       </c>
       <c r="C264" s="14">
         <v>250</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E264" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B265" s="12" t="s">
         <v>588</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>589</v>
       </c>
       <c r="C265" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E265" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B266" s="12" t="s">
         <v>591</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>592</v>
       </c>
       <c r="C266" s="14">
         <v>69.900000000000006</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E266" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B267" s="12" t="s">
         <v>594</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>595</v>
       </c>
       <c r="C267" s="14">
         <v>89.9</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E267" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>597</v>
-      </c>
-      <c r="B268" s="12" t="s">
-        <v>598</v>
       </c>
       <c r="C268" s="14">
         <v>399.9</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B269" s="12" t="s">
         <v>600</v>
-      </c>
-      <c r="B269" s="12" t="s">
-        <v>601</v>
       </c>
       <c r="C269" s="14">
         <v>149.9</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C270" s="14">
         <v>110</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C271" s="14">
         <v>89.9</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B272" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="B272" s="12" t="s">
-        <v>608</v>
       </c>
       <c r="C272" s="14">
         <v>48</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B273" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="B273" s="12" t="s">
-        <v>612</v>
       </c>
       <c r="C273" s="14">
         <v>210</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B274" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="B274" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="C274" s="14">
         <v>468</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B275" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>618</v>
       </c>
       <c r="C275" s="14">
         <v>468</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B276" s="12" t="s">
         <v>620</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>621</v>
       </c>
       <c r="C276" s="14">
         <v>230</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B277" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>624</v>
       </c>
       <c r="C277" s="14">
         <v>230</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B278" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="C278" s="14">
         <v>230</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E278" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B279" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="B279" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="C279" s="14">
         <v>190</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B280" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>633</v>
       </c>
       <c r="C280" s="14">
         <v>198</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B281" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="C281" s="14">
         <v>38</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B282" s="12" t="s">
         <v>638</v>
-      </c>
-      <c r="B282" s="12" t="s">
-        <v>639</v>
       </c>
       <c r="C282" s="14">
         <v>38</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B283" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="B283" s="12" t="s">
-        <v>642</v>
       </c>
       <c r="C283" s="14">
         <v>160</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B284" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="B284" s="12" t="s">
-        <v>645</v>
       </c>
       <c r="C284" s="14">
         <v>38</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="B285" s="12" t="s">
         <v>647</v>
-      </c>
-      <c r="B285" s="12" t="s">
-        <v>648</v>
       </c>
       <c r="C285" s="14">
         <v>72</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="B286" s="12" t="s">
         <v>650</v>
-      </c>
-      <c r="B286" s="12" t="s">
-        <v>651</v>
       </c>
       <c r="C286" s="14">
         <v>210</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B287" s="12" t="s">
         <v>653</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>654</v>
       </c>
       <c r="C287" s="14">
         <v>350</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B288" s="12" t="s">
         <v>656</v>
-      </c>
-      <c r="B288" s="12" t="s">
-        <v>657</v>
       </c>
       <c r="C288" s="14">
         <v>55</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B289" s="12" t="s">
         <v>659</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>660</v>
       </c>
       <c r="C289" s="14">
         <v>38</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>662</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>663</v>
       </c>
       <c r="C290" s="14">
         <v>490</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E290" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="B291" s="12" t="s">
         <v>665</v>
-      </c>
-      <c r="B291" s="12" t="s">
-        <v>666</v>
       </c>
       <c r="C291" s="14">
         <v>70</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="B292" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>670</v>
       </c>
       <c r="C292" s="14">
         <v>42</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E292" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B293" s="12" t="s">
         <v>672</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>673</v>
       </c>
       <c r="C293" s="14">
         <v>100</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E293" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B294" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="C294" s="14">
         <v>48</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E294" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B295" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="B295" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="C295" s="14">
         <v>25</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B296" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>682</v>
       </c>
       <c r="C296" s="14">
         <v>42</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B297" s="12" t="s">
         <v>684</v>
-      </c>
-      <c r="B297" s="12" t="s">
-        <v>685</v>
       </c>
       <c r="C297" s="14">
         <v>55</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F297" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B298" s="12" t="s">
         <v>687</v>
-      </c>
-      <c r="B298" s="12" t="s">
-        <v>688</v>
       </c>
       <c r="C298" s="14">
         <v>35</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E298" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B299" s="12" t="s">
         <v>690</v>
-      </c>
-      <c r="B299" s="12" t="s">
-        <v>691</v>
       </c>
       <c r="C299" s="14">
         <v>18</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E299" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B300" s="12" t="s">
         <v>693</v>
-      </c>
-      <c r="B300" s="12" t="s">
-        <v>694</v>
       </c>
       <c r="C300" s="14">
         <v>48</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E300" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B301" s="12" t="s">
         <v>696</v>
-      </c>
-      <c r="B301" s="12" t="s">
-        <v>697</v>
       </c>
       <c r="C301" s="14">
         <v>52</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E301" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B302" s="12" t="s">
         <v>699</v>
-      </c>
-      <c r="B302" s="12" t="s">
-        <v>700</v>
       </c>
       <c r="C302" s="14">
         <v>65</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E302" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B303" s="12" t="s">
         <v>702</v>
-      </c>
-      <c r="B303" s="12" t="s">
-        <v>703</v>
       </c>
       <c r="C303" s="14">
         <v>30</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E303" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B304" s="12" t="s">
         <v>705</v>
-      </c>
-      <c r="B304" s="12" t="s">
-        <v>706</v>
       </c>
       <c r="C304" s="14">
         <v>120</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E304" s="12" t="s">
         <v>292</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/508ea63fb0320d71/Desktop/lojacocriativo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\OneDrive\Desktop\lojacocriativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{78E1242E-9732-4814-86E7-6E260A1187DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE04DB1-B2EF-498F-9125-BACA49C5CD36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1570AC11-0448-4F97-B171-34909903FF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,8 +2595,8 @@
   </sheetPr>
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="I230" sqref="I230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
